--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3964.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3964.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.196270204747426</v>
+        <v>0.726787269115448</v>
       </c>
       <c r="B1">
-        <v>2.249585648165418</v>
+        <v>2.112131118774414</v>
       </c>
       <c r="C1">
-        <v>5.967809527072053</v>
+        <v>2.545148611068726</v>
       </c>
       <c r="D1">
-        <v>3.46986516718806</v>
+        <v>3.025104999542236</v>
       </c>
       <c r="E1">
-        <v>1.419378761410066</v>
+        <v>1.169565081596375</v>
       </c>
     </row>
   </sheetData>
